--- a/data/city-util/raw/Misc Info.xlsx
+++ b/data/city-util/raw/Misc Info.xlsx
@@ -402,16 +402,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43194</v>
+        <v>43370</v>
       </c>
       <c r="C2" s="0">
         <v>2.99999993294477E-02</v>
       </c>
       <c r="D2" s="0">
-        <v>3.1999999191612E-03</v>
+        <v>4.00000018998981E-03</v>
       </c>
       <c r="E2" s="0">
-        <v>8.99999984540045E-04</v>
+        <v>9.77999996393919E-04</v>
       </c>
       <c r="F2" s="0">
         <v>500</v>
@@ -421,7 +421,7 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>Inflation factors and discount rate from 2011 FEMP;  Regulatory surcharge is now correctly modeled as a % for gas utilities and a $/kWh surcharge for electric utilities.  PCE 100% funding in effect July 2012. Jan 2018 gas RCC is .32% of total bill - fuel costs use price before taxes added as program now does the math</t>
+          <t>Inflation factors and discount rate from 2011 FEMP;  Regulatory surcharge is now correctly modeled as a % for gas utilities and a $/kWh surcharge for electric utilities.  PCE 100% funding in effect July 2018. Jan 2018 gas RCC is .40% of total bill - fuel costs use price before taxes added as program now does the math</t>
         </is>
       </c>
     </row>
